--- a/biology/Médecine/Emmanuel_Venet/Emmanuel_Venet.xlsx
+++ b/biology/Médecine/Emmanuel_Venet/Emmanuel_Venet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmanuel Venet, né en 1959 à Oullins, est écrivain et psychiatre exerçant à Lyon.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en 1959 à Oullins, Emmanuel Venet soutient une thèse de doctorat de médecine intitulée « Approche clinique et métapsychologique de la honte » en 1988.[réf. nécessaire]
-La particularité de ses écrits et de son attitude professionnelle résident dans la double figure d'écrivain et de psychiatre[1] ; selon ses propres mots « je ne suis jamais l’un sans l’autre[2]. »
-Il publie des ouvrages de littérature, nourris notamment de sa réflexion sur la médecine (Précis de médecine imaginaire[3]) ou de son exercice professionnel  (Ferdière, psychiatre d’Antonin Artaud ; Marcher droit, tourner en rond ;  Observations en trois lignes).
+La particularité de ses écrits et de son attitude professionnelle résident dans la double figure d'écrivain et de psychiatre ; selon ses propres mots « je ne suis jamais l’un sans l’autre. »
+Il publie des ouvrages de littérature, nourris notamment de sa réflexion sur la médecine (Précis de médecine imaginaire) ou de son exercice professionnel  (Ferdière, psychiatre d’Antonin Artaud ; Marcher droit, tourner en rond ;  Observations en trois lignes).
 Il s'intéresse aux ressorts psychiques et psychopathologiques de la créativité et publie des articles sur Antonin Artaud, Arthur Rimbaud, ou encore Thomas Bernhard.
 </t>
         </is>
@@ -547,25 +561,98 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrage professionnel
-Manifeste pour une psychiatrie artisanale, Lagrasse, éditions Verdier, 2020  (ISBN 978-2378560621)[4].
-Ouvrages littéraires
-Portrait de fleuve, Paris, éditions Gallimard, coll. « Le chemin », 1991
+          <t>Ouvrage professionnel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Manifeste pour une psychiatrie artisanale, Lagrasse, éditions Verdier, 2020  (ISBN 978-2378560621).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Emmanuel_Venet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuel_Venet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages littéraires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Portrait de fleuve, Paris, éditions Gallimard, coll. « Le chemin », 1991
 Précis de médecine imaginaire, Lagrasse, éditions Verdier, 2005
 Ferdière, psychiatre d’Antonin Artaud, Lagrasse, éditions Verdier, 2006
 Rien, Lagrasse, éditions Verdier, 2013
-Marcher droit, tourner en rond, Lagrasse, éditions Verdier, 2016[5]
+Marcher droit, tourner en rond, Lagrasse, éditions Verdier, 2016
 Plaise au tribunal, Lyon, éditions La Fosse aux ours, 2017
 J'aurai tant aimé, Paris, éditions Jean-Claude Lattès, 2018 (ISBN 978-2-7096-5981-9)
 49 Poèmes carrés dont un triangulaire, Lyon, La Fosse aux ours, 2018
-Observations en trois lignes, Lyon, La Fosse aux ours, 2020[6]
+Observations en trois lignes, Lyon, La Fosse aux ours, 2020
 Virgile s'en fout, Lagrasse, Verdier, 2022
 Schizogrammes, Lyon, La Fosse aux ours, 2022
 La Lumière, l'encre et l'usure du mobilier, Gallimard, janvier 2023
 La Sainte-Recommence (théâtre), éditions AEthalidès, janvier 2023
-Contrefeu, Lagrasse, Verdier, janvier 2024  (ISBN 978-2-37856-191-8)
-Contributions à des ouvrages collectifs
-« La Légende de saint Jean l’hospitalier », in Trente années de psychiatrie lyonnaise, Lyon, éditions CESURA, 1991 p. 495-498
+Contrefeu, Lagrasse, Verdier, janvier 2024  (ISBN 978-2-37856-191-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Emmanuel_Venet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuel_Venet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Contributions à des ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>« La Légende de saint Jean l’hospitalier », in Trente années de psychiatrie lyonnaise, Lyon, éditions CESURA, 1991 p. 495-498
 « La Misère vue d’un service d’urgences psychiatriques », in Les Soins psychiques confrontés aux ruptures du lien social, sous la direction de Marcel Sassolas, Ramouville, éditions Érès, 1997 p. 127-139
 « Darwin parmi nous », in Les Mots du refus, Lyon, coédition Golias et al., 1998 p. 36-45
 « Gaston Ferdière », in Raconter avec Jacques Hochmann, Paris, éditions GREUPP, 2002 p. 287-305.
@@ -577,46 +664,123 @@
 « Regards de psychiatres sur les mainlevées d’hospitalisation sous contrainte » (avec Anne Parriaud) in Les Soins psychiatriques sans consentement, Paris, éditions LEH, 2017 p. 153-162
 « Henri Michaux, explorateur de lui-même », in La Figure du poète-médecin, Chêne-Bourg (Suisse), éditions Georg, 2018, p. 49-61
 « D’un dilemme », in La Figure du poète-médecin, Chêne-Bourg (Suisse), éditions Georg, 2018, p. 429-434
-« Séance de dédicaces », in L’Écrivain et son lecteur, Paris, éditions Pierre-Guillaume de Roux, 2018, p. 214-217
-Articles
-Médecine
-« Souvenirs d’hypocondrie », in Libres cahiers pour la psychanalyse, n° 28, automne 2013, p. 21-24[7]
-« L’impossible rencontre entre Artaud et les soins psychiatriques », in Les Temps modernes, n° 687-688, Paris, Gallimard, janvier-avril 2016[8]
-Littérature
-« Habiter », in La NRF, n° 623, Paris, Gallimard, mars 2017 p. 28-36[9]
-« Rimbaud et son train », in La NRF, n° 631, Paris, Gallimard, juillet 2018, p. 18-30[10]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+« Séance de dédicaces », in L’Écrivain et son lecteur, Paris, éditions Pierre-Guillaume de Roux, 2018, p. 214-217</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Emmanuel_Venet</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Emmanuel_Venet</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>« Souvenirs d’hypocondrie », in Libres cahiers pour la psychanalyse, n° 28, automne 2013, p. 21-24
+« L’impossible rencontre entre Artaud et les soins psychiatriques », in Les Temps modernes, n° 687-688, Paris, Gallimard, janvier-avril 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Emmanuel_Venet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuel_Venet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>« Habiter », in La NRF, n° 623, Paris, Gallimard, mars 2017 p. 28-36
+« Rimbaud et son train », in La NRF, n° 631, Paris, Gallimard, juillet 2018, p. 18-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Emmanuel_Venet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuel_Venet</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>2005 : Prix de la parlotte (Précis de médecine imaginaire)
 2006 : Prix du style (Ferdière, psychiatre d'Antonin Artaud)
-2006 : Prix Rhône-Alpes de littérature (Précis de médecine imaginaire)[11].</t>
+2006 : Prix Rhône-Alpes de littérature (Précis de médecine imaginaire).</t>
         </is>
       </c>
     </row>
